--- a/Main project schedule.xlsx
+++ b/Main project schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ROUTINE WORK</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t xml:space="preserve">create the jsp with controllers and write programs to get values to table. </t>
+  </si>
+  <si>
+    <t>using data connectivity</t>
+  </si>
+  <si>
+    <t>makes some changes in UI screens.</t>
   </si>
 </sst>
 </file>
@@ -536,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -866,6 +872,22 @@
         <v>46</v>
       </c>
     </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5">
+        <v>43881</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5">
+        <v>43885</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
